--- a/Data/ConfigFiles/Config.xlsx
+++ b/Data/ConfigFiles/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yazmin\AutomationProcesses\cinepolis\WeeklyShipmentBot\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yazmin\AutomationProcesses\cinepolis\WeeklyShipmentBot\Data\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD391C9-16DC-4D41-9B63-9E24953922FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BAE0D-2E0F-43AE-92A2-BA7C00BEB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -171,6 +171,15 @@
   </si>
   <si>
     <t>NoEnvFilePathArray</t>
+  </si>
+  <si>
+    <t>BlacklistSheetName</t>
+  </si>
+  <si>
+    <t>file path array: path1, path2, path3, path4</t>
+  </si>
+  <si>
+    <t>File path corres</t>
   </si>
 </sst>
 </file>
@@ -683,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20D9A4-B24A-48FB-83BA-8E4507ED59B9}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -718,68 +727,79 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="21"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="2" t="s">
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="20"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" s="21"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="21"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75">
-      <c r="A6" s="20" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75">
-      <c r="A7" s="2"/>
       <c r="B7" s="20"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="2"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="16">
-        <v>21</v>
-      </c>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="16">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B13" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B11" r:id="rId1" xr:uid="{58EC0946-E8B4-4BDB-80EA-7ED2F2D369BC}"/>
+    <hyperlink ref="B12" r:id="rId1" xr:uid="{58EC0946-E8B4-4BDB-80EA-7ED2F2D369BC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1928,7 +1948,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/ConfigFiles/Config.xlsx
+++ b/Data/ConfigFiles/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yazmin\AutomationProcesses\cinepolis\WeeklyShipmentBot\Data\ConfigFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7.Yazmin\AutomationProcesses\cinepolis\WeeklyShipmentBot\Data\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B95BAE0D-2E0F-43AE-92A2-BA7C00BEB1A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D6EA5-0A25-4238-A1FB-82AB1F9E7E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -176,10 +176,12 @@
     <t>BlacklistSheetName</t>
   </si>
   <si>
-    <t>file path array: path1, path2, path3, path4</t>
-  </si>
-  <si>
-    <t>File path corres</t>
+    <t>file path array: path1, path2, path3, path4
+file path should be comma(,) seprated</t>
+  </si>
+  <si>
+    <t>File path corres
+provide the path where bot can find all the files of correos</t>
   </si>
 </sst>
 </file>
@@ -736,12 +738,12 @@
     <row r="4" spans="1:3">
       <c r="B4" s="21"/>
     </row>
-    <row r="5" spans="1:3" ht="15.75">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="20"/>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -749,12 +751,12 @@
       <c r="A6" s="2"/>
       <c r="B6" s="21"/>
     </row>
-    <row r="7" spans="1:3" ht="15.75">
+    <row r="7" spans="1:3" ht="60">
       <c r="A7" s="20" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="20"/>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>44</v>
       </c>
     </row>

--- a/Data/ConfigFiles/Config.xlsx
+++ b/Data/ConfigFiles/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\7.Yazmin\AutomationProcesses\cinepolis\WeeklyShipmentBot\Data\ConfigFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4D6EA5-0A25-4238-A1FB-82AB1F9E7E02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18CB6DAD-2CFA-4DBF-87BB-D757E6207EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Name</t>
   </si>
@@ -182,6 +182,9 @@
   <si>
     <t>File path corres
 provide the path where bot can find all the files of correos</t>
+  </si>
+  <si>
+    <t>RemaningShipments</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D20D9A4-B24A-48FB-83BA-8E4507ED59B9}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z978"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -977,7 +980,14 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
